--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,308 +475,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>151650</v>
+        <v>49670</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>70833</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>1019</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>124631</v>
+        <v>67413</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>79048</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>22</v>
+        <v>2124</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>173538</v>
+        <v>60669</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>86750</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>42</v>
+        <v>1873</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>102859</v>
+        <v>72186</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>132288</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>41</v>
+        <v>3099</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>49200</v>
+        <v>66887</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>120974</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>25</v>
+        <v>4127</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>67493</v>
+        <v>71003</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>134172</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44</v>
+        <v>3093</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>63987</v>
+        <v>81212</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>208489</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>39</v>
+        <v>1336</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>185393</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>53079</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>54665</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>50646</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>70833</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1086</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>67413</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>84114</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>2172</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>60673</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>86750</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1926</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>72296</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>129802</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3137</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>66922</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>120974</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4180</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>71001</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>134172</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>3112</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>81102</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>208489</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1348</v>
-      </c>
-      <c r="E18" s="2" t="n">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>75950</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>912</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +647,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>97164</v>
+        <v>95855</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -842,7 +655,7 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2123</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="3">
@@ -852,7 +665,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>88869</v>
+        <v>89408</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
@@ -860,7 +673,7 @@
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0987</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +683,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>84417</v>
+        <v>84903</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -878,7 +691,7 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0377</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="5">
@@ -888,7 +701,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>74209</v>
+        <v>74758</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
@@ -896,7 +709,7 @@
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0295</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +719,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>73018</v>
+        <v>72769</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -914,7 +727,7 @@
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0202</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="7">
@@ -924,7 +737,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>67569</v>
+        <v>67330</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
@@ -932,7 +745,7 @@
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0196</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="8">
@@ -942,7 +755,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>64373</v>
+        <v>64593</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -950,7 +763,7 @@
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0194</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +773,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>63541</v>
+        <v>64410</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
@@ -968,7 +781,7 @@
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0174</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="10">
@@ -978,7 +791,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>63268</v>
+        <v>63009</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -986,7 +799,7 @@
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.015</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="11">
@@ -996,7 +809,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>62094</v>
+        <v>62601</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
